--- a/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
+++ b/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kantonsschulebaden-my.sharepoint.com/personal/elena_tafelski_students_ksba_ch/Documents/Informatik/2. Jahr/Dienstag/M306/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="8_{4AA41E01-7620-4293-A6F5-6042501C45FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7D7A52-5BE8-44C6-A7AE-8DDB3261D01B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -222,12 +222,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,12 +234,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,6 +241,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -421,15 +421,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -442,11 +444,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -460,22 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -782,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,38 +793,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56094ED0-7023-43B3-AF69-D143D07D2D6D}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" customWidth="1"/>
-    <col min="4" max="4" width="0.54296875" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" customWidth="1"/>
-    <col min="6" max="6" width="3.26953125" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.5546875" customWidth="1"/>
+    <col min="5" max="5" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="23" width="3.1796875" customWidth="1"/>
-    <col min="24" max="39" width="3.453125" customWidth="1"/>
-    <col min="40" max="40" width="5.81640625" customWidth="1"/>
+    <col min="9" max="23" width="3.109375" customWidth="1"/>
+    <col min="24" max="39" width="3.44140625" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:42" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:42" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="46">
         <v>44915</v>
       </c>
@@ -831,50 +832,50 @@
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="47">
+      <c r="J3" s="44">
         <v>44936</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
-      <c r="O3" s="47">
+      <c r="O3" s="44">
         <v>44943</v>
       </c>
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
       <c r="R3" s="46"/>
       <c r="S3" s="46"/>
-      <c r="T3" s="47">
+      <c r="T3" s="44">
         <v>44950</v>
       </c>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="47">
+      <c r="X3" s="47"/>
+      <c r="Y3" s="44">
         <v>44957</v>
       </c>
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
       <c r="AB3" s="46"/>
       <c r="AC3" s="46"/>
-      <c r="AD3" s="47">
+      <c r="AD3" s="44">
         <v>44978</v>
       </c>
       <c r="AE3" s="46"/>
       <c r="AF3" s="46"/>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
-      <c r="AI3" s="47">
+      <c r="AI3" s="44">
         <v>44985</v>
       </c>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="49"/>
-    </row>
-    <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="45"/>
+    </row>
+    <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -915,19 +916,19 @@
       <c r="AL4" s="15"/>
       <c r="AM4" s="17"/>
     </row>
-    <row r="5" spans="1:42" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -939,13 +940,13 @@
       <c r="AI5" s="2"/>
       <c r="AM5" s="18"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="J6" s="2"/>
       <c r="O6" s="2"/>
       <c r="T6" s="2"/>
@@ -953,23 +954,23 @@
       <c r="AD6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AM6" s="18"/>
-      <c r="AO6" s="28"/>
+      <c r="AO6" s="27"/>
       <c r="AP6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="40">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="2"/>
       <c r="O7" s="2"/>
       <c r="T7" s="2"/>
@@ -977,19 +978,19 @@
       <c r="AD7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AM7" s="18"/>
-      <c r="AO7" s="26"/>
+      <c r="AO7" s="33"/>
       <c r="AP7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2"/>
       <c r="O8" s="2"/>
       <c r="T8" s="2"/>
@@ -1001,12 +1002,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="40">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="43">
         <v>1.2</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1"/>
@@ -1015,9 +1016,9 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="O9" s="2"/>
       <c r="T9" s="2"/>
       <c r="X9" s="18"/>
@@ -1025,14 +1026,14 @@
       <c r="AI9" s="2"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="O10" s="2"/>
       <c r="T10" s="2"/>
       <c r="X10" s="18"/>
@@ -1040,17 +1041,17 @@
       <c r="AI10" s="2"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="40">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="43">
         <v>1.3</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="48" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1"/>
       <c r="J11" s="2"/>
-      <c r="M11" s="28"/>
+      <c r="M11" s="27"/>
       <c r="O11" s="2"/>
       <c r="T11" s="2"/>
       <c r="X11" s="18"/>
@@ -1058,14 +1059,14 @@
       <c r="AI11" s="2"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="1"/>
       <c r="J12" s="2"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
       <c r="O12" s="2"/>
       <c r="T12" s="2"/>
       <c r="X12" s="18"/>
@@ -1073,22 +1074,22 @@
       <c r="AI12" s="2"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="40">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="43">
         <v>1.4</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="2"/>
       <c r="T13" s="2"/>
       <c r="X13" s="18"/>
@@ -1096,13 +1097,13 @@
       <c r="AI13" s="2"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="1"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="O14" s="2"/>
       <c r="T14" s="2"/>
@@ -1111,7 +1112,7 @@
       <c r="AI14" s="2"/>
       <c r="AM14" s="18"/>
     </row>
-    <row r="15" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
@@ -1152,14 +1153,14 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="22"/>
     </row>
-    <row r="16" spans="1:42" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="43">
         <v>2</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
@@ -1172,17 +1173,17 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
-      <c r="O16" s="31"/>
+      <c r="O16" s="29"/>
       <c r="T16" s="2"/>
       <c r="X16" s="18"/>
       <c r="AD16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AM16" s="18"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1200,61 +1201,63 @@
       <c r="AI17" s="2"/>
       <c r="AM17" s="18"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="40">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="43">
         <v>2.1</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
       <c r="J18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
       <c r="T18" s="2"/>
       <c r="X18" s="18"/>
       <c r="AD18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AM18" s="18"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="1"/>
       <c r="J19" s="2"/>
       <c r="O19" s="2"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
       <c r="T19" s="2"/>
       <c r="X19" s="18"/>
       <c r="AD19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AM19" s="18"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="40">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1"/>
       <c r="J20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
       <c r="T20" s="2"/>
       <c r="X20" s="18"/>
       <c r="AD20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AM20" s="18"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="1"/>
       <c r="J21" s="2"/>
       <c r="O21" s="2"/>
@@ -1264,7 +1267,7 @@
       <c r="AI21" s="2"/>
       <c r="AM21" s="18"/>
     </row>
-    <row r="22" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
@@ -1305,39 +1308,40 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="22"/>
     </row>
-    <row r="23" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="43">
         <v>3</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1"/>
       <c r="J23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="T23" s="31"/>
+      <c r="T23" s="29"/>
       <c r="X23" s="18"/>
       <c r="AD23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AM23" s="18"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="1"/>
       <c r="J24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
       <c r="X24" s="18"/>
       <c r="AD24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AM24" s="18"/>
     </row>
-    <row r="25" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
@@ -1378,39 +1382,39 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="22"/>
     </row>
-    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35" t="s">
+    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="43">
         <v>4</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1"/>
       <c r="J26" s="2"/>
       <c r="O26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
       <c r="AI26" s="2"/>
       <c r="AM26" s="18"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="1"/>
       <c r="J27" s="2"/>
       <c r="O27" s="2"/>
@@ -1420,7 +1424,7 @@
       <c r="AI27" s="2"/>
       <c r="AM27" s="18"/>
     </row>
-    <row r="28" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
@@ -1461,14 +1465,14 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="22"/>
     </row>
-    <row r="29" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="43">
         <v>5</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1"/>
@@ -1477,14 +1481,14 @@
       <c r="T29" s="2"/>
       <c r="X29" s="18"/>
       <c r="AD29" s="2"/>
-      <c r="AG29" s="32"/>
+      <c r="AG29" s="30"/>
       <c r="AI29" s="2"/>
       <c r="AM29" s="18"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="1"/>
       <c r="J30" s="2"/>
       <c r="O30" s="2"/>
@@ -1494,12 +1498,12 @@
       <c r="AI30" s="2"/>
       <c r="AM30" s="18"/>
     </row>
-    <row r="31" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="40">
+    <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="43">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1"/>
@@ -1508,14 +1512,14 @@
       <c r="T31" s="2"/>
       <c r="X31" s="18"/>
       <c r="AD31" s="2"/>
-      <c r="AG31" s="32"/>
+      <c r="AG31" s="30"/>
       <c r="AI31" s="2"/>
       <c r="AM31" s="18"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="1"/>
       <c r="J32" s="2"/>
       <c r="O32" s="2"/>
@@ -1525,7 +1529,7 @@
       <c r="AI32" s="2"/>
       <c r="AM32" s="18"/>
     </row>
-    <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
@@ -1566,14 +1570,14 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="22"/>
     </row>
-    <row r="34" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="43">
         <v>6</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="48" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1"/>
@@ -1582,14 +1586,14 @@
       <c r="T34" s="2"/>
       <c r="X34" s="18"/>
       <c r="AD34" s="2"/>
-      <c r="AH34" s="32"/>
+      <c r="AH34" s="30"/>
       <c r="AI34" s="2"/>
       <c r="AM34" s="18"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="1"/>
       <c r="J35" s="2"/>
       <c r="O35" s="2"/>
@@ -1599,12 +1603,12 @@
       <c r="AI35" s="2"/>
       <c r="AM35" s="18"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
-      <c r="B36" s="40">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="43">
         <v>6.1</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
@@ -1613,14 +1617,14 @@
       <c r="T36" s="2"/>
       <c r="X36" s="18"/>
       <c r="AD36" s="2"/>
-      <c r="AH36" s="32"/>
+      <c r="AH36" s="30"/>
       <c r="AI36" s="2"/>
       <c r="AM36" s="18"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="1"/>
       <c r="J37" s="2"/>
       <c r="O37" s="2"/>
@@ -1630,12 +1634,12 @@
       <c r="AI37" s="2"/>
       <c r="AM37" s="18"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="40">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="43">
         <v>6.2</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="1"/>
@@ -1644,14 +1648,14 @@
       <c r="T38" s="2"/>
       <c r="X38" s="18"/>
       <c r="AD38" s="2"/>
-      <c r="AH38" s="32"/>
+      <c r="AH38" s="30"/>
       <c r="AI38" s="2"/>
       <c r="AM38" s="18"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="1"/>
       <c r="J39" s="2"/>
       <c r="O39" s="2"/>
@@ -1661,12 +1665,12 @@
       <c r="AI39" s="2"/>
       <c r="AM39" s="18"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="40">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="43">
         <v>6.3</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="1"/>
@@ -1675,14 +1679,14 @@
       <c r="T40" s="2"/>
       <c r="X40" s="18"/>
       <c r="AD40" s="2"/>
-      <c r="AH40" s="32"/>
+      <c r="AH40" s="30"/>
       <c r="AI40" s="2"/>
       <c r="AM40" s="18"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="1"/>
       <c r="J41" s="2"/>
       <c r="O41" s="2"/>
@@ -1692,12 +1696,12 @@
       <c r="AI41" s="2"/>
       <c r="AM41" s="18"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
-      <c r="B42" s="40">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="43">
         <v>6.4</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="50" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -1706,14 +1710,14 @@
       <c r="T42" s="2"/>
       <c r="X42" s="18"/>
       <c r="AD42" s="2"/>
-      <c r="AH42" s="32"/>
+      <c r="AH42" s="30"/>
       <c r="AI42" s="2"/>
       <c r="AM42" s="18"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="43"/>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="1"/>
       <c r="J43" s="2"/>
       <c r="O43" s="2"/>
@@ -1723,12 +1727,12 @@
       <c r="AI43" s="2"/>
       <c r="AM43" s="18"/>
     </row>
-    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
-      <c r="B44" s="40">
+    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="43">
         <v>6.5</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1"/>
@@ -1737,14 +1741,14 @@
       <c r="T44" s="2"/>
       <c r="X44" s="18"/>
       <c r="AD44" s="2"/>
-      <c r="AH44" s="32"/>
+      <c r="AH44" s="30"/>
       <c r="AI44" s="2"/>
       <c r="AM44" s="18"/>
     </row>
-    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="41"/>
+    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="1"/>
       <c r="J45" s="2"/>
       <c r="O45" s="2"/>
@@ -1754,7 +1758,7 @@
       <c r="AI45" s="2"/>
       <c r="AM45" s="18"/>
     </row>
-    <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
@@ -1795,57 +1799,57 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="22"/>
     </row>
-    <row r="47" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="43">
         <v>7</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="33"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="31"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A48" s="39"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="1"/>
       <c r="J48" s="2"/>
       <c r="O48" s="2"/>
@@ -1855,43 +1859,44 @@
       <c r="AI48" s="2"/>
       <c r="AM48" s="18"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A49" s="37"/>
-      <c r="B49" s="40">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A49" s="39"/>
+      <c r="B49" s="43">
         <v>7.1</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="I49" s="32"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="2"/>
-      <c r="N49" s="32"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="2"/>
-      <c r="S49" s="32"/>
+      <c r="S49" s="30"/>
       <c r="T49" s="2"/>
-      <c r="X49" s="33"/>
-      <c r="AC49" s="32"/>
+      <c r="X49" s="31"/>
+      <c r="AC49" s="30"/>
       <c r="AD49" s="2"/>
-      <c r="AH49" s="32"/>
+      <c r="AH49" s="30"/>
       <c r="AI49" s="2"/>
-      <c r="AM49" s="33"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A50" s="37"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
+      <c r="AM49" s="31"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="1"/>
       <c r="J50" s="2"/>
-      <c r="N50" s="26"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="2"/>
+      <c r="S50" s="35"/>
       <c r="T50" s="2"/>
       <c r="X50" s="18"/>
       <c r="AD50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AM50" s="18"/>
     </row>
-    <row r="51" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
@@ -1932,14 +1937,14 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="22"/>
     </row>
-    <row r="52" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="43">
         <v>8</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1"/>
@@ -1949,14 +1954,14 @@
       <c r="X52" s="18"/>
       <c r="AD52" s="2"/>
       <c r="AI52" s="2"/>
-      <c r="AK52" s="32"/>
-      <c r="AL52" s="32"/>
-      <c r="AM52" s="33"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A53" s="37"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="30"/>
+      <c r="AM52" s="31"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53" s="39"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="1"/>
       <c r="J53" s="2"/>
       <c r="O53" s="2"/>
@@ -1966,12 +1971,12 @@
       <c r="AI53" s="2"/>
       <c r="AM53" s="18"/>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="37"/>
-      <c r="B54" s="40">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39"/>
+      <c r="B54" s="43">
         <v>8.1</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1"/>
@@ -1984,10 +1989,10 @@
       <c r="AI54" s="2"/>
       <c r="AM54" s="18"/>
     </row>
-    <row r="55" spans="1:39" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="38"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="44"/>
+    <row r="55" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="40"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2091,163 +2096,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005799E52C7C2E8145B8BCD3EDC4958089" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="07feb37cbdcb0f6ce83e94b9b6d455b2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d985a9cd-0765-4b5f-9c1a-fc99987bb2a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5487b576dec082611a3de45102f90ed7" ns2:_="">
-    <xsd:import namespace="d985a9cd-0765-4b5f-9c1a-fc99987bb2a7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d985a9cd-0765-4b5f-9c1a-fc99987bb2a7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3A80582-D943-45A1-8983-EF36F3E9273A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFDA44E9-2EE4-4FFE-B7AC-D65F65ED4AC8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC5284FD-A3B1-4216-9C45-52C32C172F74}"/>
 </file>
--- a/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
+++ b/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/a_niklaus_inf21_stud_bbbaden_ch/Documents/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D01447D-B027-4B51-A004-654250ABFCF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
   </bookViews>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56094ED0-7023-43B3-AF69-D143D07D2D6D}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1195,7 @@
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="O17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="T17" s="36"/>
       <c r="X17" s="18"/>
       <c r="AD17" s="2"/>
       <c r="AI17" s="2"/>
@@ -1261,6 +1261,8 @@
       <c r="D21" s="1"/>
       <c r="J21" s="2"/>
       <c r="O21" s="2"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
       <c r="T21" s="2"/>
       <c r="X21" s="18"/>
       <c r="AD21" s="2"/>

--- a/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
+++ b/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/a_niklaus_inf21_stud_bbbaden_ch/Documents/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e00d83b9bdf9c96/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D01447D-B027-4B51-A004-654250ABFCF8}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0CE86C9-57F8-44B5-9E79-E0230A1D8AB2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -432,6 +432,36 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -447,36 +477,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -793,89 +795,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56094ED0-7023-43B3-AF69-D143D07D2D6D}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" customWidth="1"/>
-    <col min="4" max="4" width="0.5546875" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="0.54296875" customWidth="1"/>
+    <col min="5" max="5" width="2.90625" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" customWidth="1"/>
+    <col min="7" max="7" width="3.08984375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="23" width="3.109375" customWidth="1"/>
-    <col min="24" max="39" width="3.44140625" customWidth="1"/>
-    <col min="40" max="40" width="5.88671875" customWidth="1"/>
+    <col min="9" max="23" width="3.08984375" customWidth="1"/>
+    <col min="24" max="39" width="3.453125" customWidth="1"/>
+    <col min="40" max="40" width="5.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:42" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:42" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>44915</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="44">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="43">
         <v>44936</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="44">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="43">
         <v>44943</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="44">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="43">
         <v>44950</v>
       </c>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="44">
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="43">
         <v>44957</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="44">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="43">
         <v>44978</v>
       </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="44">
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="43">
         <v>44985</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="45"/>
-    </row>
-    <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="44"/>
+    </row>
+    <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -916,14 +918,14 @@
       <c r="AL4" s="15"/>
       <c r="AM4" s="17"/>
     </row>
-    <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
@@ -940,10 +942,10 @@
       <c r="AI5" s="2"/>
       <c r="AM5" s="18"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="1"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -959,12 +961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="43">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
@@ -983,10 +985,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="1"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -1002,12 +1004,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="43">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="41">
         <v>1.2</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1"/>
@@ -1026,27 +1028,28 @@
       <c r="AI9" s="2"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="1"/>
       <c r="J10" s="34"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="O10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="35"/>
       <c r="X10" s="18"/>
       <c r="AD10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="43">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
+      <c r="B11" s="41">
         <v>1.3</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1"/>
@@ -1059,27 +1062,29 @@
       <c r="AI11" s="2"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="48"/>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A12" s="47"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="1"/>
       <c r="J12" s="2"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="35"/>
       <c r="X12" s="18"/>
+      <c r="Y12" s="35"/>
       <c r="AD12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="43">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="41">
         <v>1.4</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
@@ -1097,10 +1102,10 @@
       <c r="AI13" s="2"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="48"/>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="1"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
@@ -1112,7 +1117,7 @@
       <c r="AI14" s="2"/>
       <c r="AM14" s="18"/>
     </row>
-    <row r="15" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
@@ -1153,14 +1158,14 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="22"/>
     </row>
-    <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>2</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
@@ -1180,10 +1185,10 @@
       <c r="AI16" s="2"/>
       <c r="AM16" s="18"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="48"/>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="1"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1195,18 +1200,19 @@
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="O17" s="2"/>
-      <c r="T17" s="36"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="35"/>
       <c r="X17" s="18"/>
       <c r="AD17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AM17" s="18"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="41">
         <v>2.1</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
@@ -1220,10 +1226,10 @@
       <c r="AI18" s="2"/>
       <c r="AM18" s="18"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="48"/>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="1"/>
       <c r="J19" s="2"/>
       <c r="O19" s="2"/>
@@ -1235,12 +1241,12 @@
       <c r="AI19" s="2"/>
       <c r="AM19" s="18"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1"/>
@@ -1254,22 +1260,23 @@
       <c r="AI20" s="2"/>
       <c r="AM20" s="18"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="48"/>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="1"/>
       <c r="J21" s="2"/>
       <c r="O21" s="2"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="2"/>
+      <c r="V21" s="35"/>
       <c r="X21" s="18"/>
       <c r="AD21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AM21" s="18"/>
     </row>
-    <row r="22" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
@@ -1310,14 +1317,14 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="22"/>
     </row>
-    <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>3</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="37" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1"/>
@@ -1329,21 +1336,22 @@
       <c r="AI23" s="2"/>
       <c r="AM23" s="18"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="48"/>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="1"/>
       <c r="J24" s="2"/>
       <c r="O24" s="2"/>
       <c r="S24" s="35"/>
       <c r="T24" s="36"/>
+      <c r="U24" s="35"/>
       <c r="X24" s="18"/>
       <c r="AD24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AM24" s="18"/>
     </row>
-    <row r="25" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
@@ -1384,14 +1392,14 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="22"/>
     </row>
-    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="41">
         <v>4</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1"/>
@@ -1413,20 +1421,27 @@
       <c r="AI26" s="2"/>
       <c r="AM26" s="18"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="42"/>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A27" s="47"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="1"/>
       <c r="J27" s="2"/>
       <c r="O27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="X27" s="18"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
       <c r="AD27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AM27" s="18"/>
     </row>
-    <row r="28" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
@@ -1467,14 +1482,14 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="22"/>
     </row>
-    <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="41">
         <v>5</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1"/>
@@ -1487,10 +1502,10 @@
       <c r="AI29" s="2"/>
       <c r="AM29" s="18"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="48"/>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="1"/>
       <c r="J30" s="2"/>
       <c r="O30" s="2"/>
@@ -1500,12 +1515,12 @@
       <c r="AI30" s="2"/>
       <c r="AM30" s="18"/>
     </row>
-    <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="43">
+    <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="47"/>
+      <c r="B31" s="41">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1"/>
@@ -1518,10 +1533,10 @@
       <c r="AI31" s="2"/>
       <c r="AM31" s="18"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="48"/>
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="47"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="1"/>
       <c r="J32" s="2"/>
       <c r="O32" s="2"/>
@@ -1531,7 +1546,7 @@
       <c r="AI32" s="2"/>
       <c r="AM32" s="18"/>
     </row>
-    <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
@@ -1572,14 +1587,14 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="22"/>
     </row>
-    <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="41">
         <v>6</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1"/>
@@ -1592,10 +1607,10 @@
       <c r="AI34" s="2"/>
       <c r="AM34" s="18"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="48"/>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="1"/>
       <c r="J35" s="2"/>
       <c r="O35" s="2"/>
@@ -1605,12 +1620,12 @@
       <c r="AI35" s="2"/>
       <c r="AM35" s="18"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="43">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A36" s="47"/>
+      <c r="B36" s="41">
         <v>6.1</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
@@ -1623,10 +1638,10 @@
       <c r="AI36" s="2"/>
       <c r="AM36" s="18"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="48"/>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A37" s="47"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="1"/>
       <c r="J37" s="2"/>
       <c r="O37" s="2"/>
@@ -1636,12 +1651,12 @@
       <c r="AI37" s="2"/>
       <c r="AM37" s="18"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="43">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A38" s="47"/>
+      <c r="B38" s="41">
         <v>6.2</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="1"/>
@@ -1654,10 +1669,10 @@
       <c r="AI38" s="2"/>
       <c r="AM38" s="18"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="48"/>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A39" s="47"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="1"/>
       <c r="J39" s="2"/>
       <c r="O39" s="2"/>
@@ -1667,12 +1682,12 @@
       <c r="AI39" s="2"/>
       <c r="AM39" s="18"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="43">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A40" s="47"/>
+      <c r="B40" s="41">
         <v>6.3</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="1"/>
@@ -1685,10 +1700,10 @@
       <c r="AI40" s="2"/>
       <c r="AM40" s="18"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="48"/>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A41" s="47"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="1"/>
       <c r="J41" s="2"/>
       <c r="O41" s="2"/>
@@ -1698,12 +1713,12 @@
       <c r="AI41" s="2"/>
       <c r="AM41" s="18"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="43">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A42" s="47"/>
+      <c r="B42" s="41">
         <v>6.4</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -1716,10 +1731,10 @@
       <c r="AI42" s="2"/>
       <c r="AM42" s="18"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="50"/>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A43" s="47"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="1"/>
       <c r="J43" s="2"/>
       <c r="O43" s="2"/>
@@ -1729,12 +1744,12 @@
       <c r="AI43" s="2"/>
       <c r="AM43" s="18"/>
     </row>
-    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="43">
+    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="47"/>
+      <c r="B44" s="41">
         <v>6.5</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1"/>
@@ -1747,10 +1762,10 @@
       <c r="AI44" s="2"/>
       <c r="AM44" s="18"/>
     </row>
-    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="48"/>
+    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="47"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="1"/>
       <c r="J45" s="2"/>
       <c r="O45" s="2"/>
@@ -1760,7 +1775,7 @@
       <c r="AI45" s="2"/>
       <c r="AM45" s="18"/>
     </row>
-    <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
@@ -1801,14 +1816,14 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="22"/>
     </row>
-    <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+    <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="41">
         <v>7</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1"/>
@@ -1848,10 +1863,10 @@
       <c r="AL47" s="30"/>
       <c r="AM47" s="31"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="48"/>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A48" s="49"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="1"/>
       <c r="J48" s="2"/>
       <c r="O48" s="2"/>
@@ -1861,12 +1876,12 @@
       <c r="AI48" s="2"/>
       <c r="AM48" s="18"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="43">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A49" s="49"/>
+      <c r="B49" s="41">
         <v>7.1</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1"/>
@@ -1883,10 +1898,10 @@
       <c r="AI49" s="2"/>
       <c r="AM49" s="31"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="48"/>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A50" s="49"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="1"/>
       <c r="J50" s="2"/>
       <c r="N50" s="35"/>
@@ -1898,7 +1913,7 @@
       <c r="AI50" s="2"/>
       <c r="AM50" s="18"/>
     </row>
-    <row r="51" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
@@ -1939,14 +1954,14 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="22"/>
     </row>
-    <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
+    <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="41">
         <v>8</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1"/>
@@ -1960,10 +1975,10 @@
       <c r="AL52" s="30"/>
       <c r="AM52" s="31"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="48"/>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A53" s="49"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="1"/>
       <c r="J53" s="2"/>
       <c r="O53" s="2"/>
@@ -1973,12 +1988,12 @@
       <c r="AI53" s="2"/>
       <c r="AM53" s="18"/>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="43">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="49"/>
+      <c r="B54" s="41">
         <v>8.1</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1"/>
@@ -1991,10 +2006,10 @@
       <c r="AI54" s="2"/>
       <c r="AM54" s="18"/>
     </row>
-    <row r="55" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="40"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="51"/>
+    <row r="55" spans="1:39" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="50"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2034,50 +2049,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A52:A55"/>
@@ -2094,6 +2065,50 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
+++ b/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e00d83b9bdf9c96/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/a_niklaus_inf21_stud_bbbaden_ch/Documents/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0CE86C9-57F8-44B5-9E79-E0230A1D8AB2}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DBCB28-7DCA-49C0-90A4-B6871D245CB0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -432,36 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -477,8 +454,38 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -785,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -795,89 +802,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56094ED0-7023-43B3-AF69-D143D07D2D6D}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W52" sqref="W52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" customWidth="1"/>
-    <col min="4" max="4" width="0.54296875" customWidth="1"/>
-    <col min="5" max="5" width="2.90625" customWidth="1"/>
-    <col min="6" max="6" width="3.36328125" customWidth="1"/>
-    <col min="7" max="7" width="3.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="0.5546875" customWidth="1"/>
+    <col min="5" max="5" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="23" width="3.08984375" customWidth="1"/>
-    <col min="24" max="39" width="3.453125" customWidth="1"/>
-    <col min="40" max="40" width="5.90625" customWidth="1"/>
+    <col min="9" max="23" width="3.109375" customWidth="1"/>
+    <col min="24" max="39" width="3.44140625" customWidth="1"/>
+    <col min="40" max="40" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:42" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:42" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>44915</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="43">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="45">
         <v>44936</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="43">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="45">
         <v>44943</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="43">
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="45">
         <v>44950</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="43">
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="45">
         <v>44957</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="43">
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="45">
         <v>44978</v>
       </c>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="43">
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="45">
         <v>44985</v>
       </c>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="44"/>
-    </row>
-    <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="46"/>
+    </row>
+    <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -918,14 +925,14 @@
       <c r="AL4" s="15"/>
       <c r="AM4" s="17"/>
     </row>
-    <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
@@ -942,10 +949,10 @@
       <c r="AI5" s="2"/>
       <c r="AM5" s="18"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="1"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -961,12 +968,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
@@ -985,10 +992,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="1"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -1004,12 +1011,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="44">
         <v>1.2</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1"/>
@@ -1028,28 +1035,28 @@
       <c r="AI9" s="2"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="1"/>
       <c r="J10" s="34"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="O10" s="2"/>
-      <c r="T10" s="52"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="35"/>
       <c r="X10" s="18"/>
       <c r="AD10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="44">
         <v>1.3</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1"/>
@@ -1062,10 +1069,10 @@
       <c r="AI11" s="2"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="37"/>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="1"/>
       <c r="J12" s="2"/>
       <c r="M12" s="33"/>
@@ -1075,16 +1082,16 @@
       <c r="U12" s="35"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="35"/>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="36"/>
       <c r="AI12" s="2"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="44">
         <v>1.4</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
@@ -1102,10 +1109,10 @@
       <c r="AI13" s="2"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="37"/>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="1"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
@@ -1117,7 +1124,7 @@
       <c r="AI14" s="2"/>
       <c r="AM14" s="18"/>
     </row>
-    <row r="15" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
@@ -1158,14 +1165,14 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="22"/>
     </row>
-    <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="44">
         <v>2</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
@@ -1185,10 +1192,10 @@
       <c r="AI16" s="2"/>
       <c r="AM16" s="18"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="37"/>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="1"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1200,19 +1207,19 @@
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="O17" s="2"/>
-      <c r="T17" s="52"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="35"/>
       <c r="X17" s="18"/>
       <c r="AD17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AM17" s="18"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="41">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="44">
         <v>2.1</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
@@ -1226,10 +1233,10 @@
       <c r="AI18" s="2"/>
       <c r="AM18" s="18"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="1"/>
       <c r="J19" s="2"/>
       <c r="O19" s="2"/>
@@ -1241,12 +1248,12 @@
       <c r="AI19" s="2"/>
       <c r="AM19" s="18"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="41">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="49" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1"/>
@@ -1260,10 +1267,10 @@
       <c r="AI20" s="2"/>
       <c r="AM20" s="18"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="37"/>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="1"/>
       <c r="J21" s="2"/>
       <c r="O21" s="2"/>
@@ -1276,7 +1283,7 @@
       <c r="AI21" s="2"/>
       <c r="AM21" s="18"/>
     </row>
-    <row r="22" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
@@ -1317,14 +1324,14 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="22"/>
     </row>
-    <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="44">
         <v>3</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1"/>
@@ -1336,10 +1343,10 @@
       <c r="AI23" s="2"/>
       <c r="AM23" s="18"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="37"/>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="1"/>
       <c r="J24" s="2"/>
       <c r="O24" s="2"/>
@@ -1351,7 +1358,7 @@
       <c r="AI24" s="2"/>
       <c r="AM24" s="18"/>
     </row>
-    <row r="25" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1"/>
@@ -1392,14 +1399,14 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="22"/>
     </row>
-    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="44">
         <v>4</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1"/>
@@ -1421,17 +1428,17 @@
       <c r="AI26" s="2"/>
       <c r="AM26" s="18"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="1"/>
       <c r="J27" s="2"/>
       <c r="O27" s="2"/>
       <c r="T27" s="2"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
-      <c r="X27" s="53"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
@@ -1441,7 +1448,7 @@
       <c r="AI27" s="2"/>
       <c r="AM27" s="18"/>
     </row>
-    <row r="28" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1"/>
@@ -1482,14 +1489,14 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="22"/>
     </row>
-    <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="44">
         <v>5</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1"/>
@@ -1502,10 +1509,10 @@
       <c r="AI29" s="2"/>
       <c r="AM29" s="18"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="1"/>
       <c r="J30" s="2"/>
       <c r="O30" s="2"/>
@@ -1515,12 +1522,12 @@
       <c r="AI30" s="2"/>
       <c r="AM30" s="18"/>
     </row>
-    <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="47"/>
-      <c r="B31" s="41">
+    <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="44">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="49" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1"/>
@@ -1533,10 +1540,10 @@
       <c r="AI31" s="2"/>
       <c r="AM31" s="18"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="37"/>
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="1"/>
       <c r="J32" s="2"/>
       <c r="O32" s="2"/>
@@ -1546,7 +1553,7 @@
       <c r="AI32" s="2"/>
       <c r="AM32" s="18"/>
     </row>
-    <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
@@ -1587,14 +1594,14 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="22"/>
     </row>
-    <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="47" t="s">
+    <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="44">
         <v>6</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1"/>
@@ -1607,10 +1614,10 @@
       <c r="AI34" s="2"/>
       <c r="AM34" s="18"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="37"/>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="1"/>
       <c r="J35" s="2"/>
       <c r="O35" s="2"/>
@@ -1620,12 +1627,12 @@
       <c r="AI35" s="2"/>
       <c r="AM35" s="18"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-      <c r="B36" s="41">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="44">
         <v>6.1</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
@@ -1638,10 +1645,10 @@
       <c r="AI36" s="2"/>
       <c r="AM36" s="18"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="37"/>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="1"/>
       <c r="J37" s="2"/>
       <c r="O37" s="2"/>
@@ -1651,12 +1658,12 @@
       <c r="AI37" s="2"/>
       <c r="AM37" s="18"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="41">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="44">
         <v>6.2</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="49" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="1"/>
@@ -1669,10 +1676,10 @@
       <c r="AI38" s="2"/>
       <c r="AM38" s="18"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="37"/>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="1"/>
       <c r="J39" s="2"/>
       <c r="O39" s="2"/>
@@ -1682,12 +1689,12 @@
       <c r="AI39" s="2"/>
       <c r="AM39" s="18"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A40" s="47"/>
-      <c r="B40" s="41">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="44">
         <v>6.3</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="1"/>
@@ -1700,10 +1707,10 @@
       <c r="AI40" s="2"/>
       <c r="AM40" s="18"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A41" s="47"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="37"/>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="1"/>
       <c r="J41" s="2"/>
       <c r="O41" s="2"/>
@@ -1713,12 +1720,12 @@
       <c r="AI41" s="2"/>
       <c r="AM41" s="18"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A42" s="47"/>
-      <c r="B42" s="41">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="44">
         <v>6.4</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="51" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -1731,10 +1738,10 @@
       <c r="AI42" s="2"/>
       <c r="AM42" s="18"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A43" s="47"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="39"/>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="1"/>
       <c r="J43" s="2"/>
       <c r="O43" s="2"/>
@@ -1744,12 +1751,12 @@
       <c r="AI43" s="2"/>
       <c r="AM43" s="18"/>
     </row>
-    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="47"/>
-      <c r="B44" s="41">
+    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="44">
         <v>6.5</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1"/>
@@ -1762,10 +1769,10 @@
       <c r="AI44" s="2"/>
       <c r="AM44" s="18"/>
     </row>
-    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="37"/>
+    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="1"/>
       <c r="J45" s="2"/>
       <c r="O45" s="2"/>
@@ -1775,7 +1782,7 @@
       <c r="AI45" s="2"/>
       <c r="AM45" s="18"/>
     </row>
-    <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
@@ -1816,14 +1823,14 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="22"/>
     </row>
-    <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="48" t="s">
+    <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="44">
         <v>7</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1"/>
@@ -1863,10 +1870,10 @@
       <c r="AL47" s="30"/>
       <c r="AM47" s="31"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A48" s="49"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="37"/>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="J48" s="2"/>
       <c r="O48" s="2"/>
@@ -1876,12 +1883,12 @@
       <c r="AI48" s="2"/>
       <c r="AM48" s="18"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A49" s="49"/>
-      <c r="B49" s="41">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="44">
         <v>7.1</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1"/>
@@ -1898,10 +1905,10 @@
       <c r="AI49" s="2"/>
       <c r="AM49" s="31"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A50" s="49"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="37"/>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="1"/>
       <c r="J50" s="2"/>
       <c r="N50" s="35"/>
@@ -1913,7 +1920,7 @@
       <c r="AI50" s="2"/>
       <c r="AM50" s="18"/>
     </row>
-    <row r="51" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
@@ -1954,14 +1961,14 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="22"/>
     </row>
-    <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="49" t="s">
+    <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="44">
         <v>8</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1"/>
@@ -1975,10 +1982,10 @@
       <c r="AL52" s="30"/>
       <c r="AM52" s="31"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A53" s="49"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="37"/>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="1"/>
       <c r="J53" s="2"/>
       <c r="O53" s="2"/>
@@ -1988,12 +1995,12 @@
       <c r="AI53" s="2"/>
       <c r="AM53" s="18"/>
     </row>
-    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="49"/>
-      <c r="B54" s="41">
+    <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="44">
         <v>8.1</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="49" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1"/>
@@ -2003,13 +2010,14 @@
       <c r="X54" s="18"/>
       <c r="Y54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AI54" s="2"/>
+      <c r="AI54" s="53"/>
+      <c r="AJ54" s="54"/>
       <c r="AM54" s="18"/>
     </row>
-    <row r="55" spans="1:39" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="50"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="38"/>
+    <row r="55" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="41"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2049,6 +2057,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A52:A55"/>
@@ -2065,50 +2117,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
+++ b/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/a_niklaus_inf21_stud_bbbaden_ch/Documents/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DBCB28-7DCA-49C0-90A4-B6871D245CB0}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B59A55D-53E2-4485-9909-AC851CB2CB01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
   </bookViews>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,14 +256,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -388,11 +382,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -439,6 +442,36 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -454,38 +487,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -802,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56094ED0-7023-43B3-AF69-D143D07D2D6D}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,61 +832,61 @@
     </row>
     <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:42" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>44915</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="45">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="44">
         <v>44936</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="45">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="44">
         <v>44943</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="45">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="44">
         <v>44950</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="45">
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="44">
         <v>44957</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="45">
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="44">
         <v>44978</v>
       </c>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="45">
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="44">
         <v>44985</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="46"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="45"/>
     </row>
     <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
@@ -926,13 +930,13 @@
       <c r="AM4" s="17"/>
     </row>
     <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
@@ -950,9 +954,9 @@
       <c r="AM5" s="18"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="1"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -969,11 +973,11 @@
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="44">
+      <c r="A7" s="48"/>
+      <c r="B7" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
@@ -993,9 +997,9 @@
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="1"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -1012,11 +1016,11 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="44">
+      <c r="A9" s="48"/>
+      <c r="B9" s="42">
         <v>1.2</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1"/>
@@ -1036,9 +1040,9 @@
       <c r="AM9" s="18"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="1"/>
       <c r="J10" s="34"/>
       <c r="K10" s="33"/>
@@ -1052,11 +1056,11 @@
       <c r="AM10" s="18"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="44">
+      <c r="A11" s="48"/>
+      <c r="B11" s="42">
         <v>1.3</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1"/>
@@ -1070,9 +1074,9 @@
       <c r="AM11" s="18"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="49"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="1"/>
       <c r="J12" s="2"/>
       <c r="M12" s="33"/>
@@ -1087,11 +1091,11 @@
       <c r="AM12" s="18"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="44">
+      <c r="A13" s="48"/>
+      <c r="B13" s="42">
         <v>1.4</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
@@ -1110,9 +1114,9 @@
       <c r="AM13" s="18"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="1"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
@@ -1166,13 +1170,13 @@
       <c r="AM15" s="22"/>
     </row>
     <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="42">
         <v>2</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
@@ -1193,9 +1197,9 @@
       <c r="AM16" s="18"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="1"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1215,11 +1219,11 @@
       <c r="AM17" s="18"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="44">
+      <c r="A18" s="48"/>
+      <c r="B18" s="42">
         <v>2.1</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
@@ -1234,9 +1238,9 @@
       <c r="AM18" s="18"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="1"/>
       <c r="J19" s="2"/>
       <c r="O19" s="2"/>
@@ -1249,11 +1253,11 @@
       <c r="AM19" s="18"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="44">
+      <c r="A20" s="48"/>
+      <c r="B20" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1"/>
@@ -1268,9 +1272,9 @@
       <c r="AM20" s="18"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="1"/>
       <c r="J21" s="2"/>
       <c r="O21" s="2"/>
@@ -1325,13 +1329,13 @@
       <c r="AM22" s="22"/>
     </row>
     <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="42">
         <v>3</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1"/>
@@ -1344,9 +1348,9 @@
       <c r="AM23" s="18"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1"/>
       <c r="J24" s="2"/>
       <c r="O24" s="2"/>
@@ -1400,13 +1404,13 @@
       <c r="AM25" s="22"/>
     </row>
     <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="42">
         <v>4</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1"/>
@@ -1429,9 +1433,9 @@
       <c r="AM26" s="18"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="1"/>
       <c r="J27" s="2"/>
       <c r="O27" s="2"/>
@@ -1444,7 +1448,11 @@
       <c r="AA27" s="35"/>
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
-      <c r="AD27" s="2"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
       <c r="AI27" s="2"/>
       <c r="AM27" s="18"/>
     </row>
@@ -1490,13 +1498,13 @@
       <c r="AM28" s="22"/>
     </row>
     <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="42">
         <v>5</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1"/>
@@ -1510,24 +1518,26 @@
       <c r="AM29" s="18"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1"/>
       <c r="J30" s="2"/>
       <c r="O30" s="2"/>
       <c r="T30" s="2"/>
       <c r="X30" s="18"/>
       <c r="AD30" s="2"/>
-      <c r="AI30" s="2"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="33"/>
       <c r="AM30" s="18"/>
     </row>
     <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="44">
+      <c r="A31" s="48"/>
+      <c r="B31" s="42">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1"/>
@@ -1541,16 +1551,17 @@
       <c r="AM31" s="18"/>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1"/>
       <c r="J32" s="2"/>
       <c r="O32" s="2"/>
       <c r="T32" s="2"/>
       <c r="X32" s="18"/>
       <c r="AD32" s="2"/>
-      <c r="AI32" s="2"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="35"/>
       <c r="AM32" s="18"/>
     </row>
     <row r="33" spans="1:39" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,13 +1606,13 @@
       <c r="AM33" s="22"/>
     </row>
     <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="42">
         <v>6</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1"/>
@@ -1615,9 +1626,9 @@
       <c r="AM34" s="18"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="1"/>
       <c r="J35" s="2"/>
       <c r="O35" s="2"/>
@@ -1625,14 +1636,16 @@
       <c r="X35" s="18"/>
       <c r="AD35" s="2"/>
       <c r="AI35" s="2"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
       <c r="AM35" s="18"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="44">
+      <c r="A36" s="48"/>
+      <c r="B36" s="42">
         <v>6.1</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
@@ -1646,9 +1659,9 @@
       <c r="AM36" s="18"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="1"/>
       <c r="J37" s="2"/>
       <c r="O37" s="2"/>
@@ -1656,14 +1669,16 @@
       <c r="X37" s="18"/>
       <c r="AD37" s="2"/>
       <c r="AI37" s="2"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
       <c r="AM37" s="18"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="44">
+      <c r="A38" s="48"/>
+      <c r="B38" s="42">
         <v>6.2</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="1"/>
@@ -1677,9 +1692,9 @@
       <c r="AM38" s="18"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="1"/>
       <c r="J39" s="2"/>
       <c r="O39" s="2"/>
@@ -1687,14 +1702,16 @@
       <c r="X39" s="18"/>
       <c r="AD39" s="2"/>
       <c r="AI39" s="2"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
       <c r="AM39" s="18"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="44">
+      <c r="A40" s="48"/>
+      <c r="B40" s="42">
         <v>6.3</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="1"/>
@@ -1708,9 +1725,9 @@
       <c r="AM40" s="18"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="1"/>
       <c r="J41" s="2"/>
       <c r="O41" s="2"/>
@@ -1718,14 +1735,16 @@
       <c r="X41" s="18"/>
       <c r="AD41" s="2"/>
       <c r="AI41" s="2"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
       <c r="AM41" s="18"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="44">
+      <c r="A42" s="48"/>
+      <c r="B42" s="42">
         <v>6.4</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -1739,9 +1758,9 @@
       <c r="AM42" s="18"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="1"/>
       <c r="J43" s="2"/>
       <c r="O43" s="2"/>
@@ -1749,14 +1768,16 @@
       <c r="X43" s="18"/>
       <c r="AD43" s="2"/>
       <c r="AI43" s="2"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="35"/>
       <c r="AM43" s="18"/>
     </row>
     <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="44">
+      <c r="A44" s="48"/>
+      <c r="B44" s="42">
         <v>6.5</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1"/>
@@ -1770,9 +1791,9 @@
       <c r="AM44" s="18"/>
     </row>
     <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="1"/>
       <c r="J45" s="2"/>
       <c r="O45" s="2"/>
@@ -1780,6 +1801,8 @@
       <c r="X45" s="18"/>
       <c r="AD45" s="2"/>
       <c r="AI45" s="2"/>
+      <c r="AK45" s="35"/>
+      <c r="AL45" s="35"/>
       <c r="AM45" s="18"/>
     </row>
     <row r="46" spans="1:39" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1824,13 +1847,13 @@
       <c r="AM46" s="22"/>
     </row>
     <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="42">
         <v>7</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1"/>
@@ -1871,24 +1894,25 @@
       <c r="AM47" s="31"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="49"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="1"/>
       <c r="J48" s="2"/>
       <c r="O48" s="2"/>
       <c r="T48" s="2"/>
       <c r="X48" s="18"/>
       <c r="AD48" s="2"/>
+      <c r="AH48" s="18"/>
       <c r="AI48" s="2"/>
       <c r="AM48" s="18"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="44">
+      <c r="A49" s="50"/>
+      <c r="B49" s="42">
         <v>7.1</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1"/>
@@ -1906,9 +1930,9 @@
       <c r="AM49" s="31"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="49"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="1"/>
       <c r="J50" s="2"/>
       <c r="N50" s="35"/>
@@ -1917,6 +1941,7 @@
       <c r="T50" s="2"/>
       <c r="X50" s="18"/>
       <c r="AD50" s="2"/>
+      <c r="AH50" s="33"/>
       <c r="AI50" s="2"/>
       <c r="AM50" s="18"/>
     </row>
@@ -1962,13 +1987,13 @@
       <c r="AM51" s="22"/>
     </row>
     <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="42">
         <v>8</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1"/>
@@ -1983,24 +2008,28 @@
       <c r="AM52" s="31"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="49"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="1"/>
       <c r="J53" s="2"/>
       <c r="O53" s="2"/>
       <c r="T53" s="2"/>
       <c r="X53" s="18"/>
       <c r="AD53" s="2"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
       <c r="AI53" s="2"/>
-      <c r="AM53" s="18"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="37"/>
     </row>
     <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="44">
+      <c r="A54" s="50"/>
+      <c r="B54" s="42">
         <v>8.1</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1"/>
@@ -2010,14 +2039,14 @@
       <c r="X54" s="18"/>
       <c r="Y54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AI54" s="53"/>
-      <c r="AJ54" s="54"/>
+      <c r="AI54" s="54"/>
+      <c r="AJ54" s="55"/>
       <c r="AM54" s="18"/>
     </row>
     <row r="55" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="52"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2057,50 +2086,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A52:A55"/>
@@ -2117,6 +2102,50 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
+++ b/LB306_Dokumente/Zeitplan/Zeitplan ZNRGT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/a_niklaus_inf21_stud_bbbaden_ch/Documents/Dokumente/GitHub/Built-different-ATM/LB306_Dokumente/Zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B59A55D-53E2-4485-9909-AC851CB2CB01}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{C8673DA0-ECE4-440C-A7B2-504492AE797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D098AC-BDE1-4C74-9347-8BCDA1541F16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D70A4009-B28E-40A2-975C-C0AC8919D4C8}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -442,36 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -487,9 +458,36 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -806,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56094ED0-7023-43B3-AF69-D143D07D2D6D}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE35" sqref="AE35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,61 +830,61 @@
     </row>
     <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:42" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="46">
+      <c r="E3" s="48">
         <v>44915</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="44">
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="46">
         <v>44936</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="44">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="46">
         <v>44943</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="44">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="46">
         <v>44950</v>
       </c>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="44">
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="46">
         <v>44957</v>
       </c>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="44">
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="46">
         <v>44978</v>
       </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="44">
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="46">
         <v>44985</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="45"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="47"/>
     </row>
     <row r="4" spans="1:42" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
@@ -930,13 +928,13 @@
       <c r="AM4" s="17"/>
     </row>
     <row r="5" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
@@ -954,9 +952,9 @@
       <c r="AM5" s="18"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="1"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -973,11 +971,11 @@
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="42">
+      <c r="A7" s="39"/>
+      <c r="B7" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
@@ -997,9 +995,9 @@
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="1"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -1016,11 +1014,11 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="42">
+      <c r="A9" s="39"/>
+      <c r="B9" s="45">
         <v>1.2</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1"/>
@@ -1040,9 +1038,9 @@
       <c r="AM9" s="18"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="1"/>
       <c r="J10" s="34"/>
       <c r="K10" s="33"/>
@@ -1056,11 +1054,11 @@
       <c r="AM10" s="18"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="42">
+      <c r="A11" s="39"/>
+      <c r="B11" s="45">
         <v>1.3</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1"/>
@@ -1074,9 +1072,9 @@
       <c r="AM11" s="18"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="1"/>
       <c r="J12" s="2"/>
       <c r="M12" s="33"/>
@@ -1091,11 +1089,11 @@
       <c r="AM12" s="18"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="42">
+      <c r="A13" s="39"/>
+      <c r="B13" s="45">
         <v>1.4</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="50" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
@@ -1114,9 +1112,9 @@
       <c r="AM13" s="18"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="1"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
@@ -1170,13 +1168,13 @@
       <c r="AM15" s="22"/>
     </row>
     <row r="16" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="45">
         <v>2</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
@@ -1197,9 +1195,9 @@
       <c r="AM16" s="18"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="1"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1219,11 +1217,11 @@
       <c r="AM17" s="18"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="42">
+      <c r="A18" s="39"/>
+      <c r="B18" s="45">
         <v>2.1</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
@@ -1238,9 +1236,9 @@
       <c r="AM18" s="18"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="1"/>
       <c r="J19" s="2"/>
       <c r="O19" s="2"/>
@@ -1253,11 +1251,11 @@
       <c r="AM19" s="18"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="42">
+      <c r="A20" s="39"/>
+      <c r="B20" s="45">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1"/>
@@ -1272,9 +1270,9 @@
       <c r="AM20" s="18"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="1"/>
       <c r="J21" s="2"/>
       <c r="O21" s="2"/>
@@ -1329,13 +1327,13 @@
       <c r="AM22" s="22"/>
     </row>
     <row r="23" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="45">
         <v>3</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1"/>
@@ -1348,9 +1346,9 @@
       <c r="AM23" s="18"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="1"/>
       <c r="J24" s="2"/>
       <c r="O24" s="2"/>
@@ -1404,13 +1402,13 @@
       <c r="AM25" s="22"/>
     </row>
     <row r="26" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="45">
         <v>4</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1"/>
@@ -1433,9 +1431,9 @@
       <c r="AM26" s="18"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="1"/>
       <c r="J27" s="2"/>
       <c r="O27" s="2"/>
@@ -1498,13 +1496,13 @@
       <c r="AM28" s="22"/>
     </row>
     <row r="29" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="45">
         <v>5</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1"/>
@@ -1518,26 +1516,26 @@
       <c r="AM29" s="18"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="1"/>
       <c r="J30" s="2"/>
       <c r="O30" s="2"/>
       <c r="T30" s="2"/>
       <c r="X30" s="18"/>
       <c r="AD30" s="2"/>
-      <c r="AH30" s="53"/>
+      <c r="AH30" s="38"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="33"/>
       <c r="AM30" s="18"/>
     </row>
     <row r="31" spans="1:39" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="42">
+      <c r="A31" s="39"/>
+      <c r="B31" s="45">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1"/>
@@ -1551,9 +1549,9 @@
       <c r="AM31" s="18"/>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="1"/>
       <c r="J32" s="2"/>
       <c r="O32" s="2"/>
@@ -1606,13 +1604,13 @@
       <c r="AM33" s="22"/>
     </row>
     <row r="34" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="45">
         <v>6</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1"/>
@@ -1626,9 +1624,9 @@
       <c r="AM34" s="18"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="1"/>
       <c r="J35" s="2"/>
       <c r="O35" s="2"/>
@@ -1641,11 +1639,11 @@
       <c r="AM35" s="18"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="42">
+      <c r="A36" s="39"/>
+      <c r="B36" s="45">
         <v>6.1</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1"/>
@@ -1659,9 +1657,9 @@
       <c r="AM36" s="18"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="1"/>
       <c r="J37" s="2"/>
       <c r="O37" s="2"/>
@@ -1674,11 +1672,11 @@
       <c r="AM37" s="18"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="42">
+      <c r="A38" s="39"/>
+      <c r="B38" s="45">
         <v>6.2</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="50" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="1"/>
@@ -1692,9 +1690,9 @@
       <c r="AM38" s="18"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="1"/>
       <c r="J39" s="2"/>
       <c r="O39" s="2"/>
@@ -1707,11 +1705,11 @@
       <c r="AM39" s="18"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="42">
+      <c r="A40" s="39"/>
+      <c r="B40" s="45">
         <v>6.3</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="1"/>
@@ -1725,9 +1723,9 @@
       <c r="AM40" s="18"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="1"/>
       <c r="J41" s="2"/>
       <c r="O41" s="2"/>
@@ -1740,11 +1738,11 @@
       <c r="AM41" s="18"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="42">
+      <c r="A42" s="39"/>
+      <c r="B42" s="45">
         <v>6.4</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
@@ -1758,9 +1756,9 @@
       <c r="AM42" s="18"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="J43" s="2"/>
       <c r="O43" s="2"/>
@@ -1773,11 +1771,11 @@
       <c r="AM43" s="18"/>
     </row>
     <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="42">
+      <c r="A44" s="39"/>
+      <c r="B44" s="45">
         <v>6.5</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="50" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1"/>
@@ -1791,9 +1789,9 @@
       <c r="AM44" s="18"/>
     </row>
     <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="1"/>
       <c r="J45" s="2"/>
       <c r="O45" s="2"/>
@@ -1847,13 +1845,13 @@
       <c r="AM46" s="22"/>
     </row>
     <row r="47" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="45">
         <v>7</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1"/>
@@ -1894,9 +1892,9 @@
       <c r="AM47" s="31"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="1"/>
       <c r="J48" s="2"/>
       <c r="O48" s="2"/>
@@ -1908,11 +1906,11 @@
       <c r="AM48" s="18"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="42">
+      <c r="A49" s="41"/>
+      <c r="B49" s="45">
         <v>7.1</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1"/>
@@ -1930,9 +1928,9 @@
       <c r="AM49" s="31"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="1"/>
       <c r="J50" s="2"/>
       <c r="N50" s="35"/>
@@ -1987,13 +1985,13 @@
       <c r="AM51" s="22"/>
     </row>
     <row r="52" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="42">
+      <c r="B52" s="45">
         <v>8</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="1"/>
@@ -2008,9 +2006,9 @@
       <c r="AM52" s="31"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="38"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="1"/>
       <c r="J53" s="2"/>
       <c r="O53" s="2"/>
@@ -2025,11 +2023,11 @@
       <c r="AM53" s="37"/>
     </row>
     <row r="54" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
-      <c r="B54" s="42">
+      <c r="A54" s="41"/>
+      <c r="B54" s="45">
         <v>8.1</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="1"/>
@@ -2039,14 +2037,13 @@
       <c r="X54" s="18"/>
       <c r="Y54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AI54" s="54"/>
-      <c r="AJ54" s="55"/>
+      <c r="AI54" s="2"/>
       <c r="AM54" s="18"/>
     </row>
     <row r="55" spans="1:39" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="51"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="21"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2086,6 +2083,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A52:A55"/>
@@ -2102,50 +2143,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
